--- a/partial_results/5.xlsx
+++ b/partial_results/5.xlsx
@@ -457,85 +457,85 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>175</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>150</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>125</v>
       </c>
       <c r="M2">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>100</v>
       </c>
       <c r="Q2">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>75</v>
       </c>
       <c r="U2">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>50</v>
       </c>
       <c r="Y2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>25</v>
@@ -543,22 +543,22 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -567,61 +567,61 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
       </c>
       <c r="M3">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>5</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>5</v>
       </c>
       <c r="U3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="X3" t="s">
         <v>5</v>
       </c>
       <c r="Y3">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="s">
         <v>5</v>
@@ -629,171 +629,171 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
         <v>4</v>
       </c>
       <c r="U5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X5" t="s">
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="s">
         <v>4</v>
@@ -801,2337 +801,2337 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.408096572909139</v>
+        <v>0.52</v>
       </c>
       <c r="E6">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.509246380409397</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I6">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.1289962042902353</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>-0.2016103878640063</v>
+        <v>0.46</v>
       </c>
       <c r="Q6">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>-0.09819902478527287</v>
+        <v>0.52</v>
       </c>
       <c r="U6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.1964492783864482</v>
+        <v>0.58</v>
       </c>
       <c r="Y6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.1737339399682231</v>
+        <v>0.5371428571428571</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="Z12">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="Z14">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="AA14">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="Z20">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="Z21">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA22">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="Z24">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA26">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="E27">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="E28">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA28">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="E29">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA29">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="E30">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA30">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="E31">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="E32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:27">
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="AA33">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="5:27">
       <c r="E34">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="Z34">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="AA34">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="5:27">
       <c r="E35">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:27">
       <c r="E36">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="5:27">
       <c r="E37">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA37">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="5:27">
       <c r="E38">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Y38">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA38">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="5:27">
       <c r="E39">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W39">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="Z39">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="5:27">
       <c r="E40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="5:27">
       <c r="E41">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O41">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="R41">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="V41">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y41">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="5:27">
       <c r="E42">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="Z42">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="AA42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="5:27">
       <c r="E43">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="R43">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S43">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W43">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA43">
         <v>1</v>
@@ -3139,541 +3139,541 @@
     </row>
     <row r="44" spans="5:27">
       <c r="E44">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S44">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="Z44">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="AA44">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="5:27">
       <c r="E45">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>2</v>
       </c>
       <c r="N45">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="S45">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W45">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="Z45">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA45">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="5:27">
       <c r="E46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="5:27">
       <c r="E47">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="R47">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W47">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="5:27">
       <c r="E48">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="Z48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="5:27">
       <c r="E49">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="Z49">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA49">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="5:27">
       <c r="E50">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="R50">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="U50">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="V50">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="Z50">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="AA50">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="5:27">
       <c r="E51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S51">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="V51">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W51">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z51">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA51">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="5:27">
       <c r="I52">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="Z52">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA52">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="5:27">
       <c r="I53">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="N53">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="R53">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="U53">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W53">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Y53">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Z53">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -3681,469 +3681,469 @@
     </row>
     <row r="54" spans="5:27">
       <c r="I54">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="N54">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O54">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="R54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U54">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="V54">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y54">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="Z54">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="AA54">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="5:27">
       <c r="I55">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O55">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="R55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S55">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="V55">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W55">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="Z55">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="5:27">
       <c r="I56">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="R56">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="V56">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W56">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="5:27">
       <c r="I57">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="R57">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="V57">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W57">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA57">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="5:27">
       <c r="I58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R58">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V58">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y58">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="Z58">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="5:27">
       <c r="I59">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="R59">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="V59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="Y59">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="Z59">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA59">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="5:27">
       <c r="I60">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="R60">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="V60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="Y60">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="Z60">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="5:27">
       <c r="I61">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K61">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="R61">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S61">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Z61">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AA61">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="5:27">
       <c r="I62">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O62">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="R62">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="V62">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="Z62">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA62">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="5:27">
       <c r="I63">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="O63">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="R63">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S63">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="V63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Y63">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="Z63">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA63">
         <v>0</v>
@@ -4151,66 +4151,66 @@
     </row>
     <row r="64" spans="5:27">
       <c r="I64">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U64">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="V64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W64">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="Z64">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="9:27">
       <c r="I65">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N65">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -4219,307 +4219,307 @@
         <v>1</v>
       </c>
       <c r="R65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S65">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Y65">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Z65">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA65">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="9:27">
       <c r="I66">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="R66">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U66">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="V66">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Z66">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA66">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="9:27">
       <c r="I67">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="K67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="R67">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S67">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U67">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="V67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y67">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="Z67">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA67">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="9:27">
       <c r="I68">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="N68">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="R68">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S68">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="U68">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="V68">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="Z68">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA68">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="9:27">
       <c r="I69">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="R69">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S69">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="U69">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="V69">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="9:27">
       <c r="I70">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R70">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U70">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="W70">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Y70">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="Z70">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA70">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="9:27">
       <c r="I71">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K71">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S71">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V71">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Z71">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA71">
         <v>0</v>
@@ -4527,93 +4527,93 @@
     </row>
     <row r="72" spans="9:27">
       <c r="I72">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K72">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U72">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="V72">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W72">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Z72">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA72">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="9:27">
       <c r="I73">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="R73">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S73">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U73">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="V73">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Z73">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA73">
         <v>1</v>
@@ -4621,558 +4621,558 @@
     </row>
     <row r="74" spans="9:27">
       <c r="I74">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="R74">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S74">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="U74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V74">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W74">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="Z74">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="9:27">
       <c r="I75">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N75">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="R75">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S75">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="U75">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y75">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Z75">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA75">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="9:27">
       <c r="I76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="R76">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S76">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U76">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="V76">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y76">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z76">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="9:27">
       <c r="M77">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U77">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="V77">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y77">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="Z77">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA77">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="9:27">
       <c r="M78">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="R78">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="V78">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Y78">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="Z78">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA78">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="9:27">
       <c r="M79">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="R79">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U79">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="V79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="Y79">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="Z79">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA79">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="9:27">
       <c r="M80">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U80">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="V80">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W80">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="Z80">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA80">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="13:27">
       <c r="M81">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="R81">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S81">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U81">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="Y81">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Z81">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA81">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="13:27">
       <c r="M82">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="R82">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S82">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="U82">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="V82">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>1</v>
       </c>
       <c r="Y82">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Z82">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA82">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="13:27">
       <c r="M83">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N83">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O83">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="R83">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S83">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U83">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="V83">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y83">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Z83">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="13:27">
       <c r="M84">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="N84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="R84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S84">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U84">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="V84">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W84">
         <v>1</v>
       </c>
       <c r="Y84">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Z84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="13:27">
       <c r="M85">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U85">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="V85">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y85">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="13:27">
       <c r="M86">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="R86">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U86">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W86">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y86">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="Z86">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="AA86">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="13:27">
       <c r="M87">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R87">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="U87">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y87">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="Z87">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA87">
         <v>1</v>
@@ -5180,189 +5180,189 @@
     </row>
     <row r="88" spans="13:27">
       <c r="M88">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R88">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="U88">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="V88">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W88">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y88">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Z88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="13:27">
       <c r="M89">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="N89">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="R89">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S89">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U89">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="V89">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Y89">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA89">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="13:27">
       <c r="M90">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N90">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="R90">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V90">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W90">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y90">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="Z90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="13:27">
       <c r="M91">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N91">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R91">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U91">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="V91">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Y91">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="Z91">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="13:27">
       <c r="M92">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="N92">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="R92">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U92">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W92">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA92">
         <v>1</v>
@@ -5370,116 +5370,116 @@
     </row>
     <row r="93" spans="13:27">
       <c r="M93">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="R93">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S93">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U93">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="V93">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W93">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y93">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="Z93">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA93">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="13:27">
       <c r="M94">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="N94">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="R94">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U94">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="V94">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W94">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y94">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z94">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="13:27">
       <c r="M95">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S95">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U95">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="V95">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W95">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y95">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="Z95">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="13:27">
@@ -5487,1049 +5487,1049 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U96">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="V96">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W96">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y96">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Z96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA96">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="13:27">
       <c r="M97">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O97">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="R97">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S97">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U97">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="V97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W97">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y97">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="Z97">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="13:27">
       <c r="M98">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="O98">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R98">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="U98">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="V98">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W98">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y98">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z98">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="13:27">
       <c r="M99">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="R99">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="U99">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="V99">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W99">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y99">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="Z99">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="13:27">
       <c r="M100">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="N100">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="R100">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U100">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W100">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="Y100">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="Z100">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA100">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="13:27">
       <c r="M101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N101">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="R101">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S101">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U101">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="V101">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W101">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y101">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z101">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="13:27">
       <c r="Q102">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="R102">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S102">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="U102">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="V102">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y102">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Z102">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="13:27">
       <c r="Q103">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="R103">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S103">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="U103">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="V103">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Y103">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Z103">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA103">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="13:27">
       <c r="Q104">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="R104">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S104">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U104">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="V104">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y104">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Z104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="13:27">
       <c r="Q105">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="R105">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S105">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U105">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="V105">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y105">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Z105">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="13:27">
       <c r="Q106">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="R106">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S106">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="U106">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="V106">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y106">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="Z106">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="AA106">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="13:27">
       <c r="Q107">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="R107">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U107">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="V107">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W107">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Y107">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="Z107">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="13:27">
       <c r="Q108">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="R108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S108">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U108">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="V108">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W108">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y108">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="Z108">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="13:27">
       <c r="Q109">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="R109">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S109">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="U109">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="V109">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W109">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y109">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="Z109">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="13:27">
       <c r="Q110">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="R110">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S110">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="U110">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="V110">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Y110">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="Z110">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="13:27">
       <c r="Q111">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="R111">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U111">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W111">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Y111">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="Z111">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA111">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="13:27">
       <c r="Q112">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="R112">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S112">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U112">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="V112">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W112">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y112">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="Z112">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA112">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="17:27">
       <c r="Q113">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="R113">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S113">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V113">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="Y113">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="Z113">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="17:27">
       <c r="Q114">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="R114">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S114">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U114">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="V114">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y114">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="Z114">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA114">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="17:27">
       <c r="Q115">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R115">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U115">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="V115">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>1</v>
       </c>
       <c r="Y115">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="Z115">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA115">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="17:27">
       <c r="Q116">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="R116">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S116">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U116">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V116">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W116">
         <v>0</v>
       </c>
       <c r="Y116">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Z116">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA116">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="17:27">
       <c r="Q117">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="R117">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U117">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="V117">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y117">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="Z117">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="17:27">
       <c r="Q118">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R118">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S118">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U118">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="V118">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W118">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y118">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="Z118">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="17:27">
       <c r="Q119">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="R119">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S119">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="U119">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y119">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="Z119">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA119">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="17:27">
       <c r="Q120">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="R120">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S120">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U120">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="V120">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W120">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y120">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="Z120">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA120">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="17:27">
       <c r="Q121">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R121">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="U121">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="V121">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W121">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y121">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="Z121">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA121">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="17:27">
       <c r="Q122">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="R122">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U122">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="V122">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W122">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y122">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z122">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="17:27">
       <c r="Q123">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="R123">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U123">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="V123">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W123">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Y123">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="Z123">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA123">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="17:27">
       <c r="Q124">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="R124">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S124">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U124">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="V124">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W124">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Y124">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="Z124">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="17:27">
       <c r="Q125">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="R125">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U125">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="V125">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W125">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y125">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="Z125">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA125">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="17:27">
       <c r="Q126">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R126">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S126">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U126">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="V126">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W126">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y126">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="Z126">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA126">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="17:27">
       <c r="U127">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="V127">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W127">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y127">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="Z127">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA127">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="17:27">
       <c r="U128">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="V128">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W128">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Y128">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="Z128">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="21:27">
       <c r="U129">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="V129">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W129">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y129">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="Z129">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA129">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="21:27">
       <c r="U130">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="V130">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W130">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y130">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="Z130">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="21:27">
       <c r="U131">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W131">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="Y131">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="Z131">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA131">
         <v>1</v>
@@ -6537,677 +6537,677 @@
     </row>
     <row r="132" spans="21:27">
       <c r="U132">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="V132">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y132">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="Z132">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA132">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="21:27">
       <c r="U133">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="V133">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W133">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Y133">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Z133">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA133">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="21:27">
       <c r="U134">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="V134">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W134">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y134">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Z134">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="21:27">
       <c r="U135">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="V135">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W135">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y135">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Z135">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA135">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="21:27">
       <c r="U136">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Y136">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="Z136">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA136">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="21:27">
       <c r="U137">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W137">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Y137">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Z137">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA137">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="21:27">
       <c r="U138">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W138">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Y138">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="Z138">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="AA138">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="21:27">
       <c r="U139">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="V139">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W139">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Y139">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Z139">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="21:27">
       <c r="U140">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="V140">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W140">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y140">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA140">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="21:27">
       <c r="U141">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="V141">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W141">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z141">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA141">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="21:27">
       <c r="U142">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y142">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA142">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="21:27">
       <c r="U143">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="V143">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W143">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y143">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="Z143">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="21:27">
       <c r="U144">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="V144">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W144">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y144">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="Z144">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="AA144">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="21:27">
       <c r="U145">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="V145">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W145">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Y145">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Z145">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="21:27">
       <c r="U146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V146">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="Y146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z146">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA146">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="21:27">
       <c r="U147">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="V147">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y147">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="Z147">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA147">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="21:27">
       <c r="U148">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="V148">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Y148">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="21:27">
       <c r="U149">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="V149">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="W149">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y149">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="Z149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="21:27">
       <c r="U150">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y150">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="Z150">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA150">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="21:27">
       <c r="U151">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="V151">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W151">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y151">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="Z151">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA151">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="21:27">
       <c r="Y152">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="Z152">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA152">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="21:27">
       <c r="Y153">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="Z153">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA153">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="21:27">
       <c r="Y154">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="Z154">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA154">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="21:27">
       <c r="Y155">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Z155">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA155">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="21:27">
       <c r="Y156">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="Z156">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA156">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="21:27">
       <c r="Y157">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Z157">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA157">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="21:27">
       <c r="Y158">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Z158">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="21:27">
       <c r="Y159">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="Z159">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA159">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="21:27">
       <c r="Y160">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="Z160">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AA160">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="25:27">
       <c r="Y161">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="Z161">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA161">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="25:27">
       <c r="Y162">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="Z162">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA162">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="25:27">
       <c r="Y163">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="Z163">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA163">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="25:27">
       <c r="Y164">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="Z164">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="25:27">
       <c r="Y165">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Z165">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA165">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="25:27">
       <c r="Y166">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Z166">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA166">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="25:27">
       <c r="Y167">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="Z167">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA167">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="25:27">
       <c r="Y168">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="Z168">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA168">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="25:27">
       <c r="Y169">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="Z169">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA169">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="25:27">
       <c r="Y170">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="Z170">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA170">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="25:27">
       <c r="Y171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z171">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA171">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="25:27">
       <c r="Y172">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="Z172">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="25:27">
       <c r="Y173">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="Z173">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AA173">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="25:27">
       <c r="Y174">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Z174">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA174">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="25:27">
       <c r="Y175">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="Z175">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="AA175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="25:27">
       <c r="Y176">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="Z176">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA176">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
